--- a/spark-cv/data/research.xlsx
+++ b/spark-cv/data/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark-brc_gits\spark-brc.github.io\spark-cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E0DC7-D800-4CAC-B36F-3679F1F41382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1862719-9F5D-D543-8268-FFE3B02904E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="23550" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Developed groundwater models with MODFLOW for several watersheds (Middle Bosque in Texas, United States, Missouri, Deer Creek in Missouri, United States, Neishaboor, Iran, and Limpopo, Southern Africa)</t>
   </si>
   <si>
-    <t>Develop SWAT-MODFLOW model to support resilient development and return on investment analyses in the Cubango-Okavango River Basin (CORB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribute to the development of APEX model optimization tool </t>
-  </si>
-  <si>
     <t>Contributed to the development of a new integrated model to simulate hydrological processes in watershed systems</t>
   </si>
   <si>
@@ -209,15 +203,6 @@
     <t>https://github.com/spark-brc/apexmf-viz</t>
   </si>
   <si>
-    <t>Develop a web application for visualizing and analyzing Colorado River Basin (CRB) APEX-MODFLOW model performance</t>
-  </si>
-  <si>
-    <t>Develop a web application for visualizing and analyzing Biomass in grazing lands</t>
-  </si>
-  <si>
-    <t>Develop a web application for visualizing and analyzing APEX simulation results</t>
-  </si>
-  <si>
     <t>ma</t>
   </si>
   <si>
@@ -332,13 +317,61 @@
     <t>Develop a Rice paddy module in SWAT+ for simulating paddy rice cultivation and irrigation management in agricultural watersheds</t>
   </si>
   <si>
-    <t>swatp-rice</t>
-  </si>
-  <si>
-    <t>Develop a Mercury dynamics module for assessing spatial and temporal variability of Mercury transport in watersheds</t>
-  </si>
-  <si>
     <t>swatmf-Hg</t>
+  </si>
+  <si>
+    <t>https://www.koksilahwater.ca/getinvolved</t>
+  </si>
+  <si>
+    <t>SWAT-MODFLOW, PEST, swatmf</t>
+  </si>
+  <si>
+    <t>Developed SWAT-MODFLOW model to support resilient development and return on investment analyses in the Cubango-Okavango River Basin (CORB)</t>
+  </si>
+  <si>
+    <t>swatp-paddy</t>
+  </si>
+  <si>
+    <t>Provide technical support by developing the SWAT-MODFLOW model for the Yongsan River watershed in South Korea and conducting uncertainty analysis</t>
+  </si>
+  <si>
+    <t>Conducted uncertainty analysis on SWATp-Paddy models for the Osu watershed in South Korea and the Albufera region in Spain</t>
+  </si>
+  <si>
+    <t>Analyzed spatio-temporal dynamics of groundwater-surface water interactions in the Koksilah River Watershed utilizing the SWAT-MODFLOW model and swatmf optimization framework</t>
+  </si>
+  <si>
+    <t>SWAT+, PEST, swatp</t>
+  </si>
+  <si>
+    <t>CoSWAT</t>
+  </si>
+  <si>
+    <t>Developed a web application for visualizing and analyzing Colorado River Basin (CRB) APEX-MODFLOW model performance</t>
+  </si>
+  <si>
+    <t>Developed a web application for visualizing and analyzing Biomass in grazing lands</t>
+  </si>
+  <si>
+    <t>Developed a web application for visualizing and analyzing APEX simulation results</t>
+  </si>
+  <si>
+    <t>Python, SWAT+</t>
+  </si>
+  <si>
+    <t>Celray, J and Park, S</t>
+  </si>
+  <si>
+    <t>Develop the CoSWAT framework to advance global crop ecosystem and hydrological analysis</t>
+  </si>
+  <si>
+    <t>Park, S.</t>
+  </si>
+  <si>
+    <t>Developed a Mercury dynamics module for assessing spatial and temporal variability of Mercury transport in watersheds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributed to the development of APEX model optimization tool </t>
   </si>
 </sst>
 </file>
@@ -362,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +414,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -395,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,6 +457,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,9 +482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -477,7 +522,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -583,7 +628,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="11" style="2"/>
     <col min="5" max="5" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="62" style="2" customWidth="1"/>
-    <col min="8" max="9" width="25.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -781,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -793,257 +838,271 @@
         <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="F4" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="F5" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>2020</v>
       </c>
       <c r="F6" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>2020</v>
       </c>
       <c r="F7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="2">
         <v>2022</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
         <v>2018</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>2019</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
+    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
         <v>2017</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2015</v>
       </c>
       <c r="F11" s="2">
         <v>2018</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1051,27 +1110,27 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1079,262 +1138,257 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F17" s="1">
         <v>2023</v>
       </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1">
+      <c r="J19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E20" s="2">
         <v>2019</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F20" s="2">
         <v>2020</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
         <v>2019</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="2">
         <v>2017</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="I21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2023</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2023</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
         <v>2023</v>
       </c>
-      <c r="F24" s="2">
-        <v>2023</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2">
         <v>2021</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1342,32 +1396,32 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F26" s="2">
         <v>2023</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1375,138 +1429,138 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2">
         <v>7</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>2018</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>2019</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="I29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
         <v>2018</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F31" s="1">
         <v>2019</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2023</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2021</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1514,122 +1568,223 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
         <v>2021</v>
       </c>
       <c r="F32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
         <v>2021</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="F33" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2011</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2004</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2006</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2004</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2006</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1" xr:uid="{DCC76F9B-3E7E-4171-97CA-40E76F1BA6F9}"/>
-    <hyperlink ref="K29" r:id="rId2" xr:uid="{DF4C2ACF-C936-43F8-8A2C-BDE02ABB3CF6}"/>
-    <hyperlink ref="L29" r:id="rId3" xr:uid="{441A2F84-E160-4555-8500-D4D34A2FC107}"/>
-    <hyperlink ref="K27" r:id="rId4" xr:uid="{F9EEFC00-AFD8-4BE5-B5A3-A6724CA68C0C}"/>
-    <hyperlink ref="K26" r:id="rId5" xr:uid="{14BEFD48-CC80-413C-AD88-7DB68B91474E}"/>
-    <hyperlink ref="K25" r:id="rId6" xr:uid="{4ECEA80F-0B5F-430D-AAFC-CCC038B99925}"/>
-    <hyperlink ref="K19" r:id="rId7" xr:uid="{2A24C6D0-7C63-402C-A51A-E6DB052AD448}"/>
-    <hyperlink ref="J17" r:id="rId8" xr:uid="{F6080946-475C-428D-B199-C2AD3F8870D3}"/>
-    <hyperlink ref="J19" r:id="rId9" xr:uid="{FE0A1123-E816-4929-A241-93305BE61363}"/>
-    <hyperlink ref="J27" r:id="rId10" xr:uid="{91BDAB47-14B9-4A56-AD0A-1A6EB8488A7C}"/>
-    <hyperlink ref="K30" r:id="rId11" xr:uid="{7BD9F0C1-6F50-409D-8E77-76062676D3EC}"/>
-    <hyperlink ref="J30" r:id="rId12" xr:uid="{437E220B-63F3-4E00-844A-7CF1B055C39A}"/>
-    <hyperlink ref="K32" r:id="rId13" xr:uid="{273DDD2C-2A65-4892-8D7B-DAB407A1825C}"/>
-    <hyperlink ref="J32" r:id="rId14" xr:uid="{86E05EFD-83D2-4FDF-AF6A-74CD19D2E237}"/>
-    <hyperlink ref="K31" r:id="rId15" xr:uid="{5787F73E-5394-46BA-9912-DEFCCBF121E6}"/>
-    <hyperlink ref="J31" r:id="rId16" xr:uid="{AD191B46-2F27-4B87-B375-8ECF2EF3C755}"/>
-    <hyperlink ref="K24" r:id="rId17" xr:uid="{D49906F2-6461-45DC-BEF0-00E180454F5D}"/>
-    <hyperlink ref="N22" r:id="rId18" xr:uid="{E1D729C8-CCDC-41D1-B700-D2FF22BFD41B}"/>
-    <hyperlink ref="N23" r:id="rId19" xr:uid="{DF116CE1-3828-4E48-BC7B-FDD8B3CCEB28}"/>
-    <hyperlink ref="K23" r:id="rId20" xr:uid="{36A20892-89F2-47CF-BDED-C2CA52B5524E}"/>
-    <hyperlink ref="K22" r:id="rId21" xr:uid="{E5835D5B-E254-4801-AF35-CEEFCD9BF0A5}"/>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{DCC76F9B-3E7E-4171-97CA-40E76F1BA6F9}"/>
+    <hyperlink ref="K31" r:id="rId2" xr:uid="{DF4C2ACF-C936-43F8-8A2C-BDE02ABB3CF6}"/>
+    <hyperlink ref="L31" r:id="rId3" xr:uid="{441A2F84-E160-4555-8500-D4D34A2FC107}"/>
+    <hyperlink ref="K29" r:id="rId4" xr:uid="{F9EEFC00-AFD8-4BE5-B5A3-A6724CA68C0C}"/>
+    <hyperlink ref="K28" r:id="rId5" xr:uid="{14BEFD48-CC80-413C-AD88-7DB68B91474E}"/>
+    <hyperlink ref="K27" r:id="rId6" xr:uid="{4ECEA80F-0B5F-430D-AAFC-CCC038B99925}"/>
+    <hyperlink ref="K21" r:id="rId7" xr:uid="{2A24C6D0-7C63-402C-A51A-E6DB052AD448}"/>
+    <hyperlink ref="J19" r:id="rId8" xr:uid="{F6080946-475C-428D-B199-C2AD3F8870D3}"/>
+    <hyperlink ref="J21" r:id="rId9" xr:uid="{FE0A1123-E816-4929-A241-93305BE61363}"/>
+    <hyperlink ref="J29" r:id="rId10" xr:uid="{91BDAB47-14B9-4A56-AD0A-1A6EB8488A7C}"/>
+    <hyperlink ref="K32" r:id="rId11" xr:uid="{7BD9F0C1-6F50-409D-8E77-76062676D3EC}"/>
+    <hyperlink ref="J32" r:id="rId12" xr:uid="{437E220B-63F3-4E00-844A-7CF1B055C39A}"/>
+    <hyperlink ref="K33" r:id="rId13" xr:uid="{5787F73E-5394-46BA-9912-DEFCCBF121E6}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{AD191B46-2F27-4B87-B375-8ECF2EF3C755}"/>
+    <hyperlink ref="K26" r:id="rId15" xr:uid="{D49906F2-6461-45DC-BEF0-00E180454F5D}"/>
+    <hyperlink ref="N24" r:id="rId16" xr:uid="{E1D729C8-CCDC-41D1-B700-D2FF22BFD41B}"/>
+    <hyperlink ref="N25" r:id="rId17" xr:uid="{DF116CE1-3828-4E48-BC7B-FDD8B3CCEB28}"/>
+    <hyperlink ref="K25" r:id="rId18" xr:uid="{36A20892-89F2-47CF-BDED-C2CA52B5524E}"/>
+    <hyperlink ref="K24" r:id="rId19" xr:uid="{E5835D5B-E254-4801-AF35-CEEFCD9BF0A5}"/>
+    <hyperlink ref="J5" r:id="rId20" xr:uid="{E2C4FF68-D3C8-B546-A164-991490621EA5}"/>
+    <hyperlink ref="K34" r:id="rId21" xr:uid="{0B5297EE-ECF4-A645-8815-E0AA6996F8C9}"/>
+    <hyperlink ref="J34" r:id="rId22" xr:uid="{3443909C-BB9C-7D41-840A-9D64924CC32F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/spark-cv/data/research.xlsx
+++ b/spark-cv/data/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1862719-9F5D-D543-8268-FFE3B02904E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0280919-1039-F347-920E-C2FB9D9E3AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contributed to the development of APEX model optimization tool </t>
+  </si>
+  <si>
+    <t>Provided in-depth instruction on 2D and 3D groundwater flow modeling in Groundwater Hydrology (CIVE423), covering model construction using tools like Excel, Text Editor, and ModelMuse, while bridging theoretical concepts with practical applications to help students translate conceptual models into computational frameworks.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -461,6 +464,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -778,13 +784,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1693,69 +1699,97 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="10">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="10">
+        <v>2018</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2018</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
         <v>2011</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F39" s="10">
         <v>2012</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G39" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
         <v>2004</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F40" s="2">
         <v>2006</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
         <v>2004</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F41" s="2">
         <v>2006</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/spark-cv/data/research.xlsx
+++ b/spark-cv/data/research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0280919-1039-F347-920E-C2FB9D9E3AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723DF39-8477-4F44-AA2F-F9BC3F67066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">Contributed to the development of APEX model optimization tool </t>
   </si>
   <si>
-    <t>Provided in-depth instruction on 2D and 3D groundwater flow modeling in Groundwater Hydrology (CIVE423), covering model construction using tools like Excel, Text Editor, and ModelMuse, while bridging theoretical concepts with practical applications to help students translate conceptual models into computational frameworks.</t>
+    <t>Provided in-depth instruction on 2D and 3D groundwater flow modeling in Groundwater Engineering (CIVE423), covering model construction using tools like Excel, Text Editor, and ModelMuse, while bridging theoretical concepts with practical applications to help students translate conceptual models into computational frameworks</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,9 +464,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -790,7 +787,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,46 +1701,46 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="2">
         <v>2018</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="2">
         <v>2018</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
         <v>2</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="2">
         <v>2011</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="2">
         <v>2012</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="2" t="s">
         <v>87</v>
       </c>
     </row>

--- a/spark-cv/data/research.xlsx
+++ b/spark-cv/data/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Documents\spark-webs\spark-web\public\spark-cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723DF39-8477-4F44-AA2F-F9BC3F67066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFEAE2C-CC84-4425-BDD8-D80AB0458F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -68,9 +68,6 @@
     <t>year_end</t>
   </si>
   <si>
-    <t>APEX</t>
-  </si>
-  <si>
     <t>Python, PEST</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Assessed Surface Water and Groundwater Resources in the Middle Bosque, Texas Watershed using the coupled SWAT-MODFLOW model</t>
   </si>
   <si>
-    <t>Conducted research on spatial integration of SWAT and MODFLOW and optimizing the model with Spatio-temporal variation</t>
-  </si>
-  <si>
     <t>Developed groundwater models with MODFLOW for several watersheds (Middle Bosque in Texas, United States, Missouri, Deer Creek in Missouri, United States, Neishaboor, Iran, and Limpopo, Southern Africa)</t>
   </si>
   <si>
@@ -287,15 +281,6 @@
     <t>https://github.com/spark-brc/apexmf</t>
   </si>
   <si>
-    <t>AMRS, PEST</t>
-  </si>
-  <si>
-    <t>Assessed Spatio-Temporal Patterns of Groundwater - Surface Water Interactions and Solute Transports in the Colorado River Basin using coupled APEX-MODLOW Model</t>
-  </si>
-  <si>
-    <t>Assessed Water, Salt, Fire and Land Mangement in the Colorado River Basin using APEX</t>
-  </si>
-  <si>
     <t>Developed modelling frameworks for parameter estimation, sensitivity and uncertainty analysis on integrated hydrological models</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
     <t>Provide technical support by developing the SWAT-MODFLOW model for the Yongsan River watershed in South Korea and conducting uncertainty analysis</t>
   </si>
   <si>
-    <t>Conducted uncertainty analysis on SWATp-Paddy models for the Osu watershed in South Korea and the Albufera region in Spain</t>
-  </si>
-  <si>
     <t>Analyzed spatio-temporal dynamics of groundwater-surface water interactions in the Koksilah River Watershed utilizing the SWAT-MODFLOW model and swatmf optimization framework</t>
   </si>
   <si>
@@ -375,6 +357,21 @@
   </si>
   <si>
     <t>Provided in-depth instruction on 2D and 3D groundwater flow modeling in Groundwater Engineering (CIVE423), covering model construction using tools like Excel, Text Editor, and ModelMuse, while bridging theoretical concepts with practical applications to help students translate conceptual models into computational frameworks</t>
+  </si>
+  <si>
+    <t>SWAT+</t>
+  </si>
+  <si>
+    <t>Assess impacts of various desalinated produced water release scenarios on streamflow and the bio-ecosystem using SWAT+gwflow</t>
+  </si>
+  <si>
+    <t>Conducted uncertainty analysis on SWAT+ Paddy models for the Osu watershed in South Korea and the Albufera region in Spain</t>
+  </si>
+  <si>
+    <t>Assessed Spatio-Temporal Patterns of Groundwater - Surface Water Interactions, Solute Transports, Salt, Fire and Land Management in the Colorado River Basin using APEX and coupled APEX-MODLOW-RT3D-Salt models</t>
+  </si>
+  <si>
+    <t>APEX, AMRS, PEST</t>
   </si>
 </sst>
 </file>
@@ -781,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="11" style="2"/>
     <col min="5" max="5" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="62" style="2" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="25.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.69921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.796875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -811,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -829,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -838,44 +835,64 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2025</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>2024</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>2024</v>
@@ -884,22 +901,22 @@
         <v>2024</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>2024</v>
@@ -908,24 +925,24 @@
         <v>2024</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>2020</v>
@@ -934,44 +951,47 @@
         <v>2023</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>2020</v>
       </c>
       <c r="F7" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>2020</v>
@@ -980,74 +1000,71 @@
         <v>2022</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2020</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2022</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="2">
         <v>2018</v>
       </c>
-      <c r="F10" s="2">
-        <v>2019</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F11" s="2">
         <v>2018</v>
@@ -1056,764 +1073,706 @@
         <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="2">
         <v>2017</v>
       </c>
-      <c r="F12" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2015</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="2">
         <v>2024</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2">
         <v>2023</v>
       </c>
+      <c r="F24" s="2">
+        <v>2023</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="5"/>
+        <v>54</v>
+      </c>
       <c r="K24" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>2021</v>
       </c>
+      <c r="F25" s="2">
+        <v>2023</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>38</v>
+      </c>
       <c r="K25" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F26" s="2">
         <v>2023</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F27" s="2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="2">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F30" s="2">
         <v>2023</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2019</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2">
         <v>2021</v>
       </c>
       <c r="F32" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2021</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="2">
+    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
-        <v>2024</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="E36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="H36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2011</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2012</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2004</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2006</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2004</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2006</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" xr:uid="{DCC76F9B-3E7E-4171-97CA-40E76F1BA6F9}"/>
-    <hyperlink ref="K31" r:id="rId2" xr:uid="{DF4C2ACF-C936-43F8-8A2C-BDE02ABB3CF6}"/>
-    <hyperlink ref="L31" r:id="rId3" xr:uid="{441A2F84-E160-4555-8500-D4D34A2FC107}"/>
-    <hyperlink ref="K29" r:id="rId4" xr:uid="{F9EEFC00-AFD8-4BE5-B5A3-A6724CA68C0C}"/>
-    <hyperlink ref="K28" r:id="rId5" xr:uid="{14BEFD48-CC80-413C-AD88-7DB68B91474E}"/>
-    <hyperlink ref="K27" r:id="rId6" xr:uid="{4ECEA80F-0B5F-430D-AAFC-CCC038B99925}"/>
-    <hyperlink ref="K21" r:id="rId7" xr:uid="{2A24C6D0-7C63-402C-A51A-E6DB052AD448}"/>
-    <hyperlink ref="J19" r:id="rId8" xr:uid="{F6080946-475C-428D-B199-C2AD3F8870D3}"/>
-    <hyperlink ref="J21" r:id="rId9" xr:uid="{FE0A1123-E816-4929-A241-93305BE61363}"/>
-    <hyperlink ref="J29" r:id="rId10" xr:uid="{91BDAB47-14B9-4A56-AD0A-1A6EB8488A7C}"/>
-    <hyperlink ref="K32" r:id="rId11" xr:uid="{7BD9F0C1-6F50-409D-8E77-76062676D3EC}"/>
-    <hyperlink ref="J32" r:id="rId12" xr:uid="{437E220B-63F3-4E00-844A-7CF1B055C39A}"/>
-    <hyperlink ref="K33" r:id="rId13" xr:uid="{5787F73E-5394-46BA-9912-DEFCCBF121E6}"/>
-    <hyperlink ref="J33" r:id="rId14" xr:uid="{AD191B46-2F27-4B87-B375-8ECF2EF3C755}"/>
-    <hyperlink ref="K26" r:id="rId15" xr:uid="{D49906F2-6461-45DC-BEF0-00E180454F5D}"/>
-    <hyperlink ref="N24" r:id="rId16" xr:uid="{E1D729C8-CCDC-41D1-B700-D2FF22BFD41B}"/>
-    <hyperlink ref="N25" r:id="rId17" xr:uid="{DF116CE1-3828-4E48-BC7B-FDD8B3CCEB28}"/>
-    <hyperlink ref="K25" r:id="rId18" xr:uid="{36A20892-89F2-47CF-BDED-C2CA52B5524E}"/>
-    <hyperlink ref="K24" r:id="rId19" xr:uid="{E5835D5B-E254-4801-AF35-CEEFCD9BF0A5}"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{DCC76F9B-3E7E-4171-97CA-40E76F1BA6F9}"/>
+    <hyperlink ref="K29" r:id="rId2" xr:uid="{DF4C2ACF-C936-43F8-8A2C-BDE02ABB3CF6}"/>
+    <hyperlink ref="L29" r:id="rId3" xr:uid="{441A2F84-E160-4555-8500-D4D34A2FC107}"/>
+    <hyperlink ref="K27" r:id="rId4" xr:uid="{F9EEFC00-AFD8-4BE5-B5A3-A6724CA68C0C}"/>
+    <hyperlink ref="K26" r:id="rId5" xr:uid="{14BEFD48-CC80-413C-AD88-7DB68B91474E}"/>
+    <hyperlink ref="K25" r:id="rId6" xr:uid="{4ECEA80F-0B5F-430D-AAFC-CCC038B99925}"/>
+    <hyperlink ref="K19" r:id="rId7" xr:uid="{2A24C6D0-7C63-402C-A51A-E6DB052AD448}"/>
+    <hyperlink ref="J17" r:id="rId8" xr:uid="{F6080946-475C-428D-B199-C2AD3F8870D3}"/>
+    <hyperlink ref="J19" r:id="rId9" xr:uid="{FE0A1123-E816-4929-A241-93305BE61363}"/>
+    <hyperlink ref="J27" r:id="rId10" xr:uid="{91BDAB47-14B9-4A56-AD0A-1A6EB8488A7C}"/>
+    <hyperlink ref="K30" r:id="rId11" xr:uid="{7BD9F0C1-6F50-409D-8E77-76062676D3EC}"/>
+    <hyperlink ref="J30" r:id="rId12" xr:uid="{437E220B-63F3-4E00-844A-7CF1B055C39A}"/>
+    <hyperlink ref="K31" r:id="rId13" xr:uid="{5787F73E-5394-46BA-9912-DEFCCBF121E6}"/>
+    <hyperlink ref="J31" r:id="rId14" xr:uid="{AD191B46-2F27-4B87-B375-8ECF2EF3C755}"/>
+    <hyperlink ref="K24" r:id="rId15" xr:uid="{D49906F2-6461-45DC-BEF0-00E180454F5D}"/>
+    <hyperlink ref="N22" r:id="rId16" xr:uid="{E1D729C8-CCDC-41D1-B700-D2FF22BFD41B}"/>
+    <hyperlink ref="N23" r:id="rId17" xr:uid="{DF116CE1-3828-4E48-BC7B-FDD8B3CCEB28}"/>
+    <hyperlink ref="K23" r:id="rId18" xr:uid="{36A20892-89F2-47CF-BDED-C2CA52B5524E}"/>
+    <hyperlink ref="K22" r:id="rId19" xr:uid="{E5835D5B-E254-4801-AF35-CEEFCD9BF0A5}"/>
     <hyperlink ref="J5" r:id="rId20" xr:uid="{E2C4FF68-D3C8-B546-A164-991490621EA5}"/>
-    <hyperlink ref="K34" r:id="rId21" xr:uid="{0B5297EE-ECF4-A645-8815-E0AA6996F8C9}"/>
-    <hyperlink ref="J34" r:id="rId22" xr:uid="{3443909C-BB9C-7D41-840A-9D64924CC32F}"/>
+    <hyperlink ref="K32" r:id="rId21" xr:uid="{0B5297EE-ECF4-A645-8815-E0AA6996F8C9}"/>
+    <hyperlink ref="J32" r:id="rId22" xr:uid="{3443909C-BB9C-7D41-840A-9D64924CC32F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
